--- a/mbs-perturbation/bottleneck/welm/bloated_welm_rbf_results.xlsx
+++ b/mbs-perturbation/bottleneck/welm/bloated_welm_rbf_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9529914529914529</v>
+        <v>0.9577464788732394</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9487179487179487</v>
+        <v>0.9389671361502347</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.944206008583691</v>
+        <v>0.9386792452830188</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9141630901287554</v>
+        <v>0.9481132075471698</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9656652360515021</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.94514874729467</v>
+        <v>0.9453804588537513</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
